--- a/old_image/graphdefinition.xlsx
+++ b/old_image/graphdefinition.xlsx
@@ -829,7 +829,7 @@
     <t>GraphDefinition.link.target.compartment.code</t>
   </si>
   <si>
-    <t>Identifies the compartment</t>
+    <t>Patient | Encounter | RelatedPerson | Practitioner | Device</t>
   </si>
   <si>
     <t>Identifies the compartment.</t>
